--- a/biology/Zoologie/Chrysaora_hysoscella/Chrysaora_hysoscella.xlsx
+++ b/biology/Zoologie/Chrysaora_hysoscella/Chrysaora_hysoscella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Méduse rayonnée
-La méduse rayonnée, Chrysaora hysoscella, aussi appelée méduse boussole[2] est une espèce de méduses de la famille des pélagidées.
+La méduse rayonnée, Chrysaora hysoscella, aussi appelée méduse boussole est une espèce de méduses de la famille des pélagidées.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une méduse pélagique de forme allongée et de couleur blanc sale (parfois jaunâtre), avec une ombrelle régulière (10-30 cm de diamètre) ornée de 16 bandes radiales brunes (plus ou moins marquées), et bordée de 32 lobes marginaux bruns alternant avec les filaments pêcheurs, longs, fins et blanchâtres. Les quatre bras buccaux qui partent du dessous de l'ombrelle mesurent entre 20 et 60 cm de long. 24 tentacules réunis en groupe de 3 peuvent atteindre 2 m de long[3]. Elle est urticante mais moins que celle qu'on trouve en Méditerranée.  
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une méduse pélagique de forme allongée et de couleur blanc sale (parfois jaunâtre), avec une ombrelle régulière (10-30 cm de diamètre) ornée de 16 bandes radiales brunes (plus ou moins marquées), et bordée de 32 lobes marginaux bruns alternant avec les filaments pêcheurs, longs, fins et blanchâtres. Les quatre bras buccaux qui partent du dessous de l'ombrelle mesurent entre 20 et 60 cm de long. 24 tentacules réunis en groupe de 3 peuvent atteindre 2 m de long. Elle est urticante mais moins que celle qu'on trouve en Méditerranée.  
 			Vue du dessus
 			De profil
 </t>
@@ -545,9 +559,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre cette méduse pélagique dans les eaux européennes (Méditerranée, Atlantique est et nord), notamment au printemps[3]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre cette méduse pélagique dans les eaux européennes (Méditerranée, Atlantique est et nord), notamment au printemps. 
 </t>
         </is>
       </c>
